--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -372,11 +372,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:H3"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>parent1.child1.child11</v>
+        <v>First grandchild</v>
       </c>
       <c r="B1" t="str">
         <v>parent1.child1.child12</v>
@@ -394,22 +394,10 @@
         <v>parent2.child1.child21</v>
       </c>
       <c r="G1" t="str">
-        <v>parent1.child2.child21</v>
+        <v>parent1.child3.child31</v>
       </c>
       <c r="H1" t="str">
-        <v>parent1.child2.child22</v>
-      </c>
-      <c r="I1" t="str">
-        <v>parent1.child3.child31</v>
-      </c>
-      <c r="J1" t="str">
         <v>parent1.child3.child32</v>
-      </c>
-      <c r="K1" t="str">
-        <v>parent2.child1.child11</v>
-      </c>
-      <c r="L1" t="str">
-        <v>parent2.child1.child21</v>
       </c>
     </row>
     <row r="2">
@@ -431,18 +419,6 @@
       <c r="F2">
         <v>102</v>
       </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>21</v>
-      </c>
-      <c r="K2">
-        <v>101</v>
-      </c>
-      <c r="L2">
-        <v>102</v>
-      </c>
     </row>
     <row r="3">
       <c r="C3">
@@ -458,22 +434,10 @@
         <v>102</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>21</v>
-      </c>
-      <c r="I3">
-        <v>30</v>
-      </c>
-      <c r="J3">
         <v>31</v>
-      </c>
-      <c r="K3">
-        <v>101</v>
-      </c>
-      <c r="L3">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -379,25 +379,25 @@
         <v>First grandchild</v>
       </c>
       <c r="B1" t="str">
-        <v>parent1.child1.child12</v>
+        <v>parent1-child1-child12</v>
       </c>
       <c r="C1" t="str">
-        <v>parent1.child2.child21</v>
+        <v>parent1-child2-child21</v>
       </c>
       <c r="D1" t="str">
-        <v>parent1.child2.child22</v>
+        <v>parent1-child2-child22</v>
       </c>
       <c r="E1" t="str">
-        <v>parent2.child1.child11</v>
+        <v>parent2-child1-child11</v>
       </c>
       <c r="F1" t="str">
-        <v>parent2.child1.child21</v>
+        <v>parent2-child1-child21</v>
       </c>
       <c r="G1" t="str">
-        <v>parent1.child3.child31</v>
+        <v>parent1-child3-child31</v>
       </c>
       <c r="H1" t="str">
-        <v>parent1.child3.child32</v>
+        <v>parent1-child3-child32</v>
       </c>
     </row>
     <row r="2">

--- a/example/example.xlsx
+++ b/example/example.xlsx
@@ -372,71 +372,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:C8"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
         <v>First grandchild</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
         <v>parent1-child1-child12</v>
-      </c>
-      <c r="C1" t="str">
-        <v>parent1-child2-child21</v>
-      </c>
-      <c r="D1" t="str">
-        <v>parent1-child2-child22</v>
-      </c>
-      <c r="E1" t="str">
-        <v>parent2-child1-child11</v>
-      </c>
-      <c r="F1" t="str">
-        <v>parent2-child1-child21</v>
-      </c>
-      <c r="G1" t="str">
-        <v>parent1-child3-child31</v>
-      </c>
-      <c r="H1" t="str">
-        <v>parent1-child3-child32</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>10</v>
       </c>
       <c r="B2">
         <v>11</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>parent1-child2-child21</v>
+      </c>
+      <c r="B3">
         <v>20</v>
       </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
-      <c r="E2">
-        <v>101</v>
-      </c>
-      <c r="F2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3">
       <c r="C3">
         <v>20</v>
       </c>
-      <c r="D3">
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>parent1-child2-child22</v>
+      </c>
+      <c r="B4">
         <v>21</v>
       </c>
-      <c r="E3">
+      <c r="C4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>parent2-child1-child11</v>
+      </c>
+      <c r="B5">
         <v>101</v>
       </c>
-      <c r="F3">
+      <c r="C5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>parent2-child1-child21</v>
+      </c>
+      <c r="B6">
         <v>102</v>
       </c>
-      <c r="G3">
+      <c r="C6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>parent1-child3-child31</v>
+      </c>
+      <c r="C7">
         <v>30</v>
       </c>
-      <c r="H3">
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>parent1-child3-child32</v>
+      </c>
+      <c r="C8">
         <v>31</v>
       </c>
     </row>
